--- a/data/RPE/20200206.xlsx
+++ b/data/RPE/20200206.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">Nom</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t xml:space="preserve">RpeCoach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date</t>
   </si>
   <si>
     <t xml:space="preserve">DEU</t>
@@ -74,8 +77,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -142,12 +146,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -168,13 +176,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -198,10 +206,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>5</v>
@@ -218,10 +229,13 @@
       <c r="G2" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="H2" s="2" t="n">
+        <v>43867</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>7</v>
@@ -237,11 +251,14 @@
       </c>
       <c r="G3" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>43867</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>7</v>
@@ -257,11 +274,14 @@
       </c>
       <c r="G4" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>43867</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>7</v>
@@ -277,11 +297,14 @@
       </c>
       <c r="G5" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>43867</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>7</v>
@@ -298,10 +321,13 @@
       <c r="G6" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="H6" s="2" t="n">
+        <v>43867</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>6</v>
@@ -318,10 +344,13 @@
       <c r="G7" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="H7" s="2" t="n">
+        <v>43867</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>5</v>
@@ -337,11 +366,14 @@
       </c>
       <c r="G8" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>43867</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>4</v>
@@ -357,11 +389,14 @@
       </c>
       <c r="G9" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>43867</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>3</v>
@@ -377,6 +412,9 @@
       </c>
       <c r="G10" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>43867</v>
       </c>
     </row>
   </sheetData>
